--- a/Xports/UD_French-FQB/VERB-no-obl.xlsx
+++ b/Xports/UD_French-FQB/VERB-no-obl.xlsx
@@ -21361,7 +21361,7 @@
         <v>2701</v>
       </c>
       <c r="O262">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:15">
